--- a/TC/졸팡/졸팡 TC.xlsx
+++ b/TC/졸팡/졸팡 TC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\팀 지뉴\TC\졸팡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee_Note\Desktop\팀 지뉴\TC\졸팡\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889416E-1167-40FF-9897-30F4D2BB93F5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC (4)" sheetId="12" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="리뷰 리포트" sheetId="7" r:id="rId6"/>
     <sheet name="버그 리포트" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -146,12 +147,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -204,12 +205,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="345">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1558,13 +1559,29 @@
   </si>
   <si>
     <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TC 체크 결과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1676,7 +1693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1980,13 +1997,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,19 +2103,43 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,15 +2158,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2131,77 +2193,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
     <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2567,6 +2604,54 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF6666FF"/>
@@ -2710,6 +2795,933 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>졸팡 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>차 시스템 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TC</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TC 리포트 그래프'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TC 리포트 그래프'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B89A-4A19-9990-248277951A97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C011D6C1-A58D-4B21-8F3B-CD8661B25260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2974,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3005,79 +4017,79 @@
     <row r="2" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="N6" s="25" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="N6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="N7" s="23" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="N7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="O7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="N8" s="11" t="s">
         <v>8</v>
       </c>
@@ -3087,15 +4099,15 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3105,13 +4117,13 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3121,15 +4133,15 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
       <c r="N11" s="8" t="s">
         <v>18</v>
       </c>
@@ -3139,13 +4151,13 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
       <c r="N12" s="9" t="s">
         <v>19</v>
       </c>
@@ -3160,33 +4172,33 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="35"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="16" t="s">
         <v>0</v>
       </c>
@@ -3199,11 +4211,11 @@
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J16" s="15" t="s">
@@ -3233,6 +4245,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:H14"/>
@@ -3240,61 +4264,49 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J13:J1048576 J1">
-    <cfRule type="beginsWith" dxfId="13" priority="7" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="45" priority="7" operator="beginsWith" text="b">
       <formula>LEFT(J1,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N12">
-    <cfRule type="beginsWith" dxfId="9" priority="3" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="41" priority="3" operator="beginsWith" text="b">
       <formula>LEFT(N9,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="수정">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="수정">
       <formula>NOT(ISERROR(SEARCH("수정",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="갱신">
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="갱신">
       <formula>NOT(ISERROR(SEARCH("갱신",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"갱신, 수정"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J41 N9:N12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J41 N9:N12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$N$9:$N$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -3305,11 +4317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3326,12 +4338,16 @@
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="56"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3344,6 +4360,10 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3356,6 +4376,12 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="60">
+        <v>13</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3368,6 +4394,12 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="60">
+        <v>5</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3379,9 +4411,13 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+    <row r="6" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="62">
+        <v>55</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3628,36 +4664,45 @@
       <c r="L26" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B12">
-    <cfRule type="beginsWith" dxfId="23" priority="1" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="35" priority="3" operator="beginsWith" text="b">
       <formula>LEFT(B9,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$N$8:$N$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3691,12 +4736,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="13"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -3705,10 +4750,10 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="13"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -3717,10 +4762,10 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -3729,58 +4774,58 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="N6" s="25" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="N6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="28"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="N7" s="23" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="N7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="O7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="N8" s="11" t="s">
         <v>8</v>
       </c>
@@ -3792,15 +4837,15 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3812,13 +4857,13 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3830,15 +4875,15 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
       <c r="N11" s="8" t="s">
         <v>18</v>
       </c>
@@ -3850,13 +4895,13 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
       <c r="N12" s="9" t="s">
         <v>19</v>
       </c>
@@ -3880,33 +4925,33 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:20" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="35"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="5" t="s">
         <v>0</v>
       </c>
@@ -3919,20 +4964,20 @@
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="43" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -4133,7 +5178,7 @@
       </c>
       <c r="E28" s="54"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="23" t="s">
         <v>69</v>
       </c>
       <c r="I28" s="14" t="s">
@@ -4149,7 +5194,7 @@
       </c>
       <c r="E29" s="54"/>
       <c r="G29" s="54"/>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="23" t="s">
         <v>71</v>
       </c>
       <c r="I29" s="14" t="s">
@@ -4302,7 +5347,7 @@
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="23" t="s">
         <v>90</v>
       </c>
       <c r="I38" s="14" t="s">
@@ -4319,7 +5364,7 @@
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="23" t="s">
         <v>92</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -5157,6 +6202,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G4:J12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="F59:F66"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G16:G35"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G48:G49"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="E16:E88"/>
     <mergeCell ref="F67:F78"/>
@@ -5173,89 +6245,63 @@
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="F50:F58"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="F59:F66"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G16:G35"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G4:J12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1 J13:J1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="11" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="31" priority="11" operator="beginsWith" text="b">
       <formula>LEFT(J1,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N12">
-    <cfRule type="beginsWith" dxfId="19" priority="3" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="27" priority="3" operator="beginsWith" text="b">
       <formula>LEFT(N9,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="수정">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="수정">
       <formula>NOT(ISERROR(SEARCH("수정",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="갱신">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="갱신">
       <formula>NOT(ISERROR(SEARCH("갱신",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N12 J16:J88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N12 J16:J88" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$N$9:$N$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"갱신, 수정"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D53"/>
     </sheetView>
   </sheetViews>
@@ -5283,79 +6329,79 @@
     <row r="2" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="N6" s="25" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="N6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="N7" s="23" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="N7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="O7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="N8" s="11" t="s">
         <v>8</v>
       </c>
@@ -5365,15 +6411,15 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
@@ -5383,13 +6429,13 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
@@ -5399,15 +6445,15 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
       <c r="N11" s="8" t="s">
         <v>18</v>
       </c>
@@ -5417,13 +6463,13 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
       <c r="N12" s="9" t="s">
         <v>19</v>
       </c>
@@ -5438,33 +6484,33 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="35"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="16" t="s">
         <v>0</v>
       </c>
@@ -5477,17 +6523,17 @@
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="43" t="s">
         <v>179</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -5664,7 +6710,7 @@
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="23" t="s">
         <v>135</v>
       </c>
       <c r="I23" s="53"/>
@@ -5688,7 +6734,7 @@
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="23" t="s">
         <v>136</v>
       </c>
       <c r="I24" s="53"/>
@@ -5712,7 +6758,7 @@
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="23" t="s">
         <v>137</v>
       </c>
       <c r="I25" s="53"/>
@@ -5762,7 +6808,7 @@
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="23" t="s">
         <v>138</v>
       </c>
       <c r="I27" s="53"/>
@@ -5786,7 +6832,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="23" t="s">
         <v>139</v>
       </c>
       <c r="I28" s="53"/>
@@ -5810,7 +6856,7 @@
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="23" t="s">
         <v>140</v>
       </c>
       <c r="I29" s="53"/>
@@ -5981,7 +7027,7 @@
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
-      <c r="H42" s="52" t="s">
+      <c r="H42" s="23" t="s">
         <v>154</v>
       </c>
       <c r="I42" s="14" t="s">
@@ -6141,13 +7187,23 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E16:E53"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="H48:H51"/>
     <mergeCell ref="G48:G51"/>
     <mergeCell ref="F47:F51"/>
@@ -6159,67 +7215,57 @@
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="G22:G29"/>
     <mergeCell ref="G34:G36"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E16:E53"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F43:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1 J13:J1048576">
-    <cfRule type="beginsWith" dxfId="33" priority="7" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="21" priority="7" operator="beginsWith" text="b">
       <formula>LEFT(J1,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N12">
-    <cfRule type="beginsWith" dxfId="29" priority="3" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="17" priority="3" operator="beginsWith" text="b">
       <formula>LEFT(N9,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="수정">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="수정">
       <formula>NOT(ISERROR(SEARCH("수정",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="갱신">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="갱신">
       <formula>NOT(ISERROR(SEARCH("갱신",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N12 J16:J51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N12 J16:J51" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$N$9:$N$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"갱신, 수정"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6230,7 +7276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6261,79 +7307,79 @@
     <row r="2" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="N6" s="25" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="N6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="N7" s="23" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="N7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="O7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="N8" s="11" t="s">
         <v>8</v>
       </c>
@@ -6343,15 +7389,15 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
@@ -6361,13 +7407,13 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
@@ -6377,15 +7423,15 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
       <c r="N11" s="8" t="s">
         <v>18</v>
       </c>
@@ -6395,13 +7441,13 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
       <c r="N12" s="9" t="s">
         <v>19</v>
       </c>
@@ -6416,33 +7462,33 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="35"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="16" t="s">
         <v>0</v>
       </c>
@@ -6455,11 +7501,11 @@
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J16" s="15" t="s">
@@ -6489,6 +7535,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:H14"/>
@@ -6496,61 +7554,49 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J13:J1048576 J1">
-    <cfRule type="beginsWith" dxfId="43" priority="7" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="11" priority="7" operator="beginsWith" text="b">
       <formula>LEFT(J1,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N12">
-    <cfRule type="beginsWith" dxfId="39" priority="3" operator="beginsWith" text="b">
+    <cfRule type="beginsWith" dxfId="7" priority="3" operator="beginsWith" text="b">
       <formula>LEFT(N9,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="수정">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="수정">
       <formula>NOT(ISERROR(SEARCH("수정",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="갱신">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="갱신">
       <formula>NOT(ISERROR(SEARCH("갱신",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J41 N9:N12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J41 N9:N12" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$N$9:$N$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"갱신, 수정"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6561,7 +7607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6611,10 +7657,10 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="I6" s="14"/>
       <c r="K6" s="21"/>
       <c r="L6" s="4"/>
@@ -6622,10 +7668,10 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="I7" s="14"/>
       <c r="K7" s="21"/>
       <c r="L7" s="4"/>
@@ -6637,8 +7683,8 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="2:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="I8" s="14"/>
       <c r="K8" s="21"/>
       <c r="L8" s="4"/>
@@ -6646,10 +7692,10 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="I9" s="14"/>
       <c r="K9" s="21"/>
       <c r="L9" s="4"/>
@@ -6657,8 +7703,8 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="I10" s="14"/>
       <c r="K10" s="21"/>
       <c r="L10" s="4"/>
@@ -6666,10 +7712,10 @@
       <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="I11" s="14"/>
       <c r="K11" s="21"/>
       <c r="L11" s="4"/>
@@ -6677,8 +7723,8 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="I12" s="14"/>
       <c r="K12" s="21"/>
       <c r="L12" s="4"/>
@@ -6733,13 +7779,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6747,7 +7793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6787,20 +7833,20 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="I6" s="21"/>
       <c r="J6" s="4"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="I7" s="21"/>
       <c r="J7" s="4"/>
       <c r="N7" s="18"/>
@@ -6811,44 +7857,44 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="I8" s="21"/>
       <c r="J8" s="4"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="33"/>
       <c r="I9" s="21"/>
       <c r="J9" s="4"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="I10" s="21"/>
       <c r="J10" s="4"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="33"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="I12" s="21"/>
       <c r="J12" s="4"/>
       <c r="N12" s="18"/>
@@ -6902,7 +7948,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"그래픽, 클라이언트, 시스템, 사운드"</formula1>
     </dataValidation>
   </dataValidations>
